--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC29D8-6BB7-44EE-9F99-62371E0315D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C053B2-C9F2-478F-B6CA-26CA0AB7F112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,7 +1829,8 @@
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>5</v>
+        <f>15/16*25.4</f>
+        <v>23.8125</v>
       </c>
       <c r="J20" s="3">
         <v>5</v>
@@ -1858,28 +1859,28 @@
         <v>42</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:L21" si="0">-G14*(G19/1000)^2/(PI()^2*$C$17)</f>
-        <v>3.1005094521903652E-11</v>
+        <f>-G14*(G19/1000)^2/(PI()^2*$C$17/$C$20)</f>
+        <v>6.2010189043807304E-11</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>2.3382680583549055E-11</v>
+        <f t="shared" ref="H21:L21" si="0">-H14*(H19/1000)^2/(PI()^2*$C$17/$C$20)</f>
+        <v>4.676536116709811E-11</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>1.2590205903338838E-10</v>
+        <v>2.5180411806677675E-10</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
-        <v>2.7918631189571309E-10</v>
+        <v>5.5837262379142617E-10</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="0"/>
-        <v>-1.5253114614422555E-10</v>
+        <v>-3.050622922884511E-10</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>4.4847410327122315E-11</v>
+        <v>8.9694820654244631E-11</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>43</v>
@@ -1897,19 +1898,19 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" ref="G22:J22" si="1">IF(G21&gt;0,(2*G21*$C$20/PI()+(G20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.0771497602802311</v>
+        <v>5.1509346883040346</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>5.0585084988379609</v>
+        <v>5.1150544821929254</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>5.2937006684873298</v>
+        <v>23.818433837477802</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="1"/>
-        <v>5.5957550333866815</v>
+        <v>6.0457044082781692</v>
       </c>
       <c r="K22" s="7" t="str">
         <f>IF(K21&gt;0,(2*K21*$C$20/PI()+(K20/1000)^4)^0.25*1000,"Tension only")</f>
@@ -1917,7 +1918,7 @@
       </c>
       <c r="L22" s="7">
         <f>IF(L21&gt;0,(2*L21*$C$20/PI()+(L20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.110486560920287</v>
+        <v>5.2142389457909761</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -1966,7 +1967,7 @@
       </c>
       <c r="I24" s="7">
         <f t="shared" si="3"/>
-        <v>7.2616875999537642</v>
+        <v>24.387850726321133</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="3"/>
@@ -1998,11 +1999,11 @@
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>7.2616875999537642</v>
+        <v>24.387850726321133</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" si="4"/>
-        <v>5.5957550333866815</v>
+        <v>6.0457044082781692</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="4"/>
@@ -2051,6 +2052,12 @@
       <c r="N28" s="6">
         <f t="shared" si="5"/>
         <v>9399.5730410906199</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>((I25-I20)/25.4)^-1</f>
+        <v>44.146985200506954</v>
       </c>
     </row>
   </sheetData>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C053B2-C9F2-478F-B6CA-26CA0AB7F112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AF366-EF42-4BA9-8BEA-1D954A1F13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Scenario</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Buckle safety factor</t>
   </si>
   <si>
-    <t>Inner diameter/mm</t>
-  </si>
-  <si>
     <t>Intermediate</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Bearing safety factor</t>
   </si>
   <si>
-    <t>Required outer diameter/mm</t>
-  </si>
-  <si>
     <t>Tension</t>
   </si>
   <si>
@@ -182,10 +176,19 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Critical Outer Diameter/mm</t>
-  </si>
-  <si>
     <t>Rod ends and spherical bearings - load requirements</t>
+  </si>
+  <si>
+    <t>Outer diameter/mm</t>
+  </si>
+  <si>
+    <t>Outer radius/m</t>
+  </si>
+  <si>
+    <t>Required thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/mm</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,251 +1816,274 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3">
-        <f>15/16*25.4</f>
-        <v>23.8125</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3">
-        <v>5</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="5">
-        <f>-G14*(G19/1000)^2/(PI()^2*$C$17/$C$20)</f>
-        <v>6.2010189043807304E-11</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" ref="H21:L21" si="0">-H14*(H19/1000)^2/(PI()^2*$C$17/$C$20)</f>
-        <v>4.676536116709811E-11</v>
-      </c>
-      <c r="I21" s="5">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4">
+        <f>G20/2000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21:L21" si="0">H20/2000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>2.5180411806677675E-10</v>
-      </c>
-      <c r="J21" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>5.5837262379142617E-10</v>
-      </c>
-      <c r="K21" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>-3.050622922884511E-10</v>
-      </c>
-      <c r="L21" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>8.9694820654244631E-11</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>43</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" ref="G22:J22" si="1">IF(G21&gt;0,(2*G21*$C$20/PI()+(G20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.1509346883040346</v>
-      </c>
-      <c r="H22" s="7">
+        <v>41</v>
+      </c>
+      <c r="G22" s="5">
+        <f>-G14*(G19/1000)^2/(PI()^2*$C17/$C21)</f>
+        <v>6.2010189043807304E-11</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:L22" si="1">-H14*(H19/1000)^2/(PI()^2*$C17/$C21)</f>
+        <v>4.676536116709811E-11</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
-        <v>5.1150544821929254</v>
-      </c>
-      <c r="I22" s="7">
+        <v>2.5180411806677675E-10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="1"/>
-        <v>23.818433837477802</v>
-      </c>
-      <c r="J22" s="7">
+        <v>5.5837262379142617E-10</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
-        <v>6.0457044082781692</v>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f>IF(K21&gt;0,(2*K21*$C$20/PI()+(K20/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>-3.050622922884511E-10</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="1"/>
+        <v>8.9694820654244631E-11</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7">
+        <f>IF(G22&gt;0,(G21-((-G22+PI() * (G21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.16599225002295656</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:L23" si="2">IF(H22&gt;0,(H21-((-H22+PI() * (H21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.12359465300053156</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19766739033734176</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.37233650646273808</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>Tension only</v>
       </c>
-      <c r="L22" s="7">
-        <f>IF(L21&gt;0,(2*L21*$C$20/PI()+(L20/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>5.2142389457909761</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" ref="G23:L23" si="2">G15/$C$18</f>
-        <v>3.6742165342343295E-6</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="L23" s="7">
         <f t="shared" si="2"/>
-        <v>4.7102141814204577E-6</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0890372873664793E-5</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
-        <v>1.96816967364925E-6</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="2"/>
-        <v>4.5530160046974168E-6</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8188436293720082E-6</v>
+        <v>0.24596816032669727</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="7">
-        <f>(4*G23*$C$21/PI()+(G20/1000)^2)^0.5*1000</f>
-        <v>5.8614260700459111</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" ref="H24:L24" si="3">(4*H23*$C$21/PI()+(H20/1000)^2)^0.5*1000</f>
-        <v>6.0823072858836866</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="G24" s="5">
+        <f t="shared" ref="G24:L24" si="3">G15/$C18*$C22</f>
+        <v>7.348433068468659E-6</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
-        <v>24.387850726321133</v>
-      </c>
-      <c r="J24" s="7">
+        <v>9.4204283628409155E-6</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>5.4783120501188556</v>
-      </c>
-      <c r="K24" s="7">
+        <v>2.1780745747329586E-5</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
-        <v>6.0493107086663764</v>
-      </c>
-      <c r="L24" s="7">
+        <v>3.9363393472984999E-6</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
-        <v>5.4434958683930441</v>
+        <v>9.1060320093948335E-6</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6376872587440164E-6</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:L25" si="4">MAX(G24,G22)</f>
-        <v>5.8614260700459111</v>
-      </c>
-      <c r="H25" s="8">
+        <v>50</v>
+      </c>
+      <c r="G25" s="7">
+        <f>(G21-(G21^2-G24/PI())^0.5)*1000</f>
+        <v>0.23965115707403911</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:L25" si="4">(H21-(H21^2-H24/PI())^0.5)*1000</f>
+        <v>0.30943665216836069</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>6.0823072858836866</v>
-      </c>
-      <c r="I25" s="8">
+        <v>0.47739554722256611</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="4"/>
-        <v>24.387850726321133</v>
-      </c>
-      <c r="J25" s="8">
+        <v>7.8698069737485193E-2</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="4"/>
-        <v>6.0457044082781692</v>
-      </c>
-      <c r="K25" s="8">
+        <v>0.29878101047147843</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="4"/>
-        <v>6.0493107086663764</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="4"/>
-        <v>5.4434958683930441</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+        <v>0.1171639201487662</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" ref="G26:L26" si="5">MAX(G25,G23)</f>
+        <v>0.23965115707403911</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.30943665216836069</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.47739554722256611</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.37233650646273808</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.29878101047147843</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.24596816032669727</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="6">
-        <f>MAX(ABS(G14),ABS(G15))*$C$22</f>
+      <c r="G28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G29" s="6">
+        <f>MAX(ABS(G14),ABS(G15))*$C23</f>
         <v>1763.6239364324781</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" ref="H28:N28" si="5">MAX(ABS(H14),ABS(H15))*$C$22</f>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29:J29" si="6">MAX(ABS(H14),ABS(H15))*$C23</f>
         <v>2260.9028070818199</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="5"/>
+      <c r="I29" s="6">
+        <f t="shared" si="6"/>
         <v>5227.3789793591004</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="5"/>
+      <c r="J29" s="6">
+        <f t="shared" si="6"/>
         <v>6087.9374110771996</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6">
-        <f t="shared" si="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6">
+        <f>MAX(ABS(M14),ABS(M15))*$C23</f>
         <v>2273.2851882937998</v>
       </c>
-      <c r="N28" s="6">
-        <f t="shared" si="5"/>
+      <c r="N29" s="6">
+        <f>MAX(ABS(N14),ABS(N15))*$C23</f>
         <v>9399.5730410906199</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34">
-        <f>((I25-I20)/25.4)^-1</f>
-        <v>44.146985200506954</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2091,7 @@
     <mergeCell ref="G16:N16"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AF366-EF42-4BA9-8BEA-1D954A1F13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922ADCB3-5213-4141-B355-1ABFA2A77182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontVD V2" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,22 +1148,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>120.453388382154</v>
+        <v>-120.453388382154</v>
       </c>
       <c r="H2">
-        <v>62.0362707835721</v>
+        <v>-62.0362707835721</v>
       </c>
       <c r="I2">
-        <v>-321.009439210594</v>
+        <v>321.009439210594</v>
       </c>
       <c r="J2">
-        <v>-549.70737292733497</v>
+        <v>549.70737292733497</v>
       </c>
       <c r="K2">
-        <v>1012.97304259648</v>
+        <v>-1012.97304259648</v>
       </c>
       <c r="L2">
-        <v>-56.931800948392599</v>
+        <v>56.931800948392599</v>
       </c>
       <c r="M2">
         <v>117.266635243352</v>
@@ -1192,22 +1192,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-237.63434135531301</v>
+        <v>237.63434135531301</v>
       </c>
       <c r="H3">
-        <v>495.995945143462</v>
+        <v>-495.995945143462</v>
       </c>
       <c r="I3">
-        <v>929.30696672290196</v>
+        <v>-929.30696672290196</v>
       </c>
       <c r="J3">
-        <v>-1762.6106188241899</v>
+        <v>1762.6106188241899</v>
       </c>
       <c r="K3">
-        <v>1005.50645417127</v>
+        <v>-1005.50645417127</v>
       </c>
       <c r="L3">
-        <v>-257.89785278618399</v>
+        <v>257.89785278618399</v>
       </c>
       <c r="M3">
         <v>612.48243916388799</v>
@@ -1236,22 +1236,22 @@
         <v>-200</v>
       </c>
       <c r="G4">
-        <v>225.07045641762701</v>
+        <v>-225.07045641762701</v>
       </c>
       <c r="H4">
-        <v>16.907709116044298</v>
+        <v>-16.907709116044298</v>
       </c>
       <c r="I4">
-        <v>-132.760030029277</v>
+        <v>132.760030029277</v>
       </c>
       <c r="J4">
-        <v>-607.47066448481303</v>
+        <v>607.47066448481303</v>
       </c>
       <c r="K4">
-        <v>1006.69134486503</v>
+        <v>-1006.69134486503</v>
       </c>
       <c r="L4">
-        <v>-226.00607155719999</v>
+        <v>226.00607155719999</v>
       </c>
       <c r="M4">
         <v>220.447062619983</v>
@@ -1280,22 +1280,22 @@
         <v>-200</v>
       </c>
       <c r="G5">
-        <v>-491.10500305730801</v>
+        <v>491.10500305730801</v>
       </c>
       <c r="H5">
-        <v>884.82705783582503</v>
+        <v>-884.82705783582503</v>
       </c>
       <c r="I5">
-        <v>2367.8727818377101</v>
+        <v>-2367.8727818377101</v>
       </c>
       <c r="J5">
-        <v>-3033.2771562785301</v>
+        <v>3033.2771562785301</v>
       </c>
       <c r="K5">
-        <v>991.75816801460496</v>
+        <v>-991.75816801460496</v>
       </c>
       <c r="L5">
-        <v>-627.93817523278301</v>
+        <v>627.93817523278301</v>
       </c>
       <c r="M5">
         <v>1136.6425941468999</v>
@@ -1324,22 +1324,22 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>777.19490018076601</v>
+        <v>-777.19490018076601</v>
       </c>
       <c r="H6">
-        <v>706.02512879588403</v>
+        <v>-706.02512879588403</v>
       </c>
       <c r="I6">
-        <v>-1706.86179674289</v>
+        <v>1706.86179674289</v>
       </c>
       <c r="J6">
-        <v>-1571.77546753049</v>
+        <v>1571.77546753049</v>
       </c>
       <c r="K6">
-        <v>1092.72384112738</v>
+        <v>-1092.72384112738</v>
       </c>
       <c r="L6">
-        <v>-550.38607294606697</v>
+        <v>550.38607294606697</v>
       </c>
       <c r="M6">
         <v>874.22629372799304</v>
@@ -1368,22 +1368,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>78.453398690886203</v>
+        <v>-78.453398690886203</v>
       </c>
       <c r="H7">
-        <v>1130.45140354091</v>
+        <v>-1130.45140354091</v>
       </c>
       <c r="I7">
-        <v>466.76874851925402</v>
+        <v>-466.76874851925402</v>
       </c>
       <c r="J7">
-        <v>-2986.2054139811198</v>
+        <v>2986.2054139811198</v>
       </c>
       <c r="K7">
-        <v>1058.77749525068</v>
+        <v>-1058.77749525068</v>
       </c>
       <c r="L7">
-        <v>-689.67150642416198</v>
+        <v>689.67150642416198</v>
       </c>
       <c r="M7">
         <v>1108.7867097057599</v>
@@ -1412,22 +1412,22 @@
         <v>-200</v>
       </c>
       <c r="G8">
-        <v>881.81196821623905</v>
+        <v>-881.81196821623905</v>
       </c>
       <c r="H8">
-        <v>660.89656712835597</v>
+        <v>-660.89656712835597</v>
       </c>
       <c r="I8">
-        <v>-1518.6123875615699</v>
+        <v>1518.6123875615699</v>
       </c>
       <c r="J8">
-        <v>-1629.53875908796</v>
+        <v>1629.53875908796</v>
       </c>
       <c r="K8">
-        <v>1086.4421433959201</v>
+        <v>-1086.4421433959201</v>
       </c>
       <c r="L8">
-        <v>-719.46034355487404</v>
+        <v>719.46034355487404</v>
       </c>
       <c r="M8">
         <v>924.740843046809</v>
@@ -1456,22 +1456,22 @@
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>183.070466726359</v>
+        <v>-183.070466726359</v>
       </c>
       <c r="H9">
-        <v>1085.32284187339</v>
+        <v>-1085.32284187339</v>
       </c>
       <c r="I9">
-        <v>655.01815770057101</v>
+        <v>-655.01815770057101</v>
       </c>
       <c r="J9">
-        <v>-3043.9687055385998</v>
+        <v>3043.9687055385998</v>
       </c>
       <c r="K9">
-        <v>1052.4957975192301</v>
+        <v>-1052.4957975192301</v>
       </c>
       <c r="L9">
-        <v>-858.74577703296904</v>
+        <v>858.74577703296904</v>
       </c>
       <c r="M9">
         <v>1043.53587929013</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-536.28812341645801</v>
+        <v>536.28812341645801</v>
       </c>
       <c r="H10">
-        <v>-581.95258722873905</v>
+        <v>581.95258722873905</v>
       </c>
       <c r="I10">
-        <v>1064.8429183216999</v>
+        <v>-1064.8429183216999</v>
       </c>
       <c r="J10">
-        <v>472.36072167582</v>
+        <v>-472.36072167582</v>
       </c>
       <c r="K10">
-        <v>933.22224406558496</v>
+        <v>-933.22224406558496</v>
       </c>
       <c r="L10">
-        <v>436.52247104928199</v>
+        <v>-436.52247104928199</v>
       </c>
       <c r="M10">
         <v>658.70943279036499</v>
@@ -1544,22 +1544,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-849.74127131781904</v>
+        <v>849.74127131781904</v>
       </c>
       <c r="H11">
-        <v>220.28048421685</v>
+        <v>-220.28048421685</v>
       </c>
       <c r="I11">
-        <v>2425.4400804982401</v>
+        <v>-2425.4400804982401</v>
       </c>
       <c r="J11">
-        <v>-1541.6825069419899</v>
+        <v>1541.6825069419899</v>
       </c>
       <c r="K11">
-        <v>946.06303332701498</v>
+        <v>-946.06303332701498</v>
       </c>
       <c r="L11">
-        <v>7.7438646658849102</v>
+        <v>-7.7438646658849102</v>
       </c>
       <c r="M11">
         <v>941.25596609528395</v>
@@ -1588,22 +1588,22 @@
         <v>-200</v>
       </c>
       <c r="G12">
-        <v>-431.67105538098502</v>
+        <v>431.67105538098502</v>
       </c>
       <c r="H12">
-        <v>-627.081148896267</v>
+        <v>627.081148896267</v>
       </c>
       <c r="I12">
-        <v>1253.09232750302</v>
+        <v>-1253.09232750302</v>
       </c>
       <c r="J12">
-        <v>414.59743011834098</v>
+        <v>-414.59743011834098</v>
       </c>
       <c r="K12">
-        <v>926.94054633412998</v>
+        <v>-926.94054633412998</v>
       </c>
       <c r="L12">
-        <v>267.44820044047401</v>
+        <v>-267.44820044047401</v>
       </c>
       <c r="M12">
         <v>642.42897665533997</v>
@@ -1632,22 +1632,22 @@
         <v>-200</v>
       </c>
       <c r="G13">
-        <v>-745.124203282346</v>
+        <v>745.124203282346</v>
       </c>
       <c r="H13">
-        <v>175.15192254932199</v>
+        <v>-175.15192254932199</v>
       </c>
       <c r="I13">
-        <v>2613.6894896795502</v>
+        <v>-2613.6894896795502</v>
       </c>
       <c r="J13">
-        <v>-1599.4457984994699</v>
+        <v>1599.4457984994699</v>
       </c>
       <c r="K13">
-        <v>939.78133559555999</v>
+        <v>-939.78133559555999</v>
       </c>
       <c r="L13">
-        <v>-161.330405942922</v>
+        <v>161.330405942922</v>
       </c>
       <c r="M13">
         <v>816.29339773235097</v>
@@ -1676,22 +1676,22 @@
         <v>-200</v>
       </c>
       <c r="G14">
-        <v>-849.74127131781904</v>
+        <v>-881.81196821623905</v>
       </c>
       <c r="H14">
-        <v>-627.081148896267</v>
+        <v>-1130.45140354091</v>
       </c>
       <c r="I14">
-        <v>-1706.86179674289</v>
+        <v>-2613.6894896795502</v>
       </c>
       <c r="J14">
-        <v>-3043.9687055385998</v>
+        <v>-472.36072167582</v>
       </c>
       <c r="K14">
-        <v>926.94054633412998</v>
+        <v>-1092.72384112738</v>
       </c>
       <c r="L14">
-        <v>-858.74577703296904</v>
+        <v>-436.52247104928199</v>
       </c>
       <c r="M14">
         <v>117.266635243352</v>
@@ -1720,22 +1720,22 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>881.81196821623905</v>
+        <v>849.74127131781904</v>
       </c>
       <c r="H15">
-        <v>1130.45140354091</v>
+        <v>627.081148896267</v>
       </c>
       <c r="I15">
-        <v>2613.6894896795502</v>
+        <v>1706.86179674289</v>
       </c>
       <c r="J15">
-        <v>472.36072167582</v>
+        <v>3043.9687055385998</v>
       </c>
       <c r="K15">
-        <v>1092.72384112738</v>
+        <v>-926.94054633412998</v>
       </c>
       <c r="L15">
-        <v>436.52247104928199</v>
+        <v>858.74577703296904</v>
       </c>
       <c r="M15">
         <v>1136.6425941468999</v>
@@ -1820,16 +1820,20 @@
         <v>48</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <f>25.4*5/8</f>
+        <v>15.875</v>
       </c>
       <c r="H20" s="3">
-        <v>10</v>
+        <f t="shared" ref="H20:J20" si="0">25.4*5/8</f>
+        <v>15.875</v>
       </c>
       <c r="I20" s="3">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="J20" s="3">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="K20" s="3">
         <v>10</v>
@@ -1851,26 +1855,26 @@
       </c>
       <c r="G21" s="4">
         <f>G20/2000</f>
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21:L21" si="1">H20/2000</f>
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:L21" si="0">H20/2000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
       <c r="L21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -1892,27 +1896,27 @@
       </c>
       <c r="G22" s="5">
         <f>-G14*(G19/1000)^2/(PI()^2*$C17/$C21)</f>
-        <v>6.2010189043807304E-11</v>
+        <v>6.4350560218616161E-11</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ref="H22:L22" si="1">-H14*(H19/1000)^2/(PI()^2*$C17/$C21)</f>
-        <v>4.676536116709811E-11</v>
+        <f t="shared" ref="H22:L22" si="2">-H14*(H19/1000)^2/(PI()^2*$C17/$C21)</f>
+        <v>8.4304827631150527E-11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5180411806677675E-10</v>
+        <f t="shared" si="2"/>
+        <v>3.8558351830537818E-10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5837262379142617E-10</v>
+        <f t="shared" si="2"/>
+        <v>8.6647834144362775E-11</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.050622922884511E-10</v>
+        <f t="shared" si="2"/>
+        <v>3.596226760506807E-10</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="1"/>
-        <v>8.9694820654244631E-11</v>
+        <f t="shared" si="2"/>
+        <v>4.5594174433779885E-11</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>42</v>
@@ -1930,27 +1934,27 @@
       </c>
       <c r="G23" s="7">
         <f>IF(G22&gt;0,(G21-((-G22+PI() * (G21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.16599225002295656</v>
+        <v>4.1280088499885681E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:L23" si="2">IF(H22&gt;0,(H21-((-H22+PI() * (H21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.12359465300053156</v>
+        <f t="shared" ref="H23:L23" si="3">IF(H22&gt;0,(H21-((-H22+PI() * (H21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>5.4212970773948738E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.19766739033734176</v>
+        <f t="shared" si="3"/>
+        <v>0.2577050318003215</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.37233650646273808</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>Tension only</v>
+        <f t="shared" si="3"/>
+        <v>5.5735716678726246E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4045493631664598</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.24596816032669727</v>
+        <f t="shared" si="3"/>
+        <v>0.1203828578856857</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -1961,28 +1965,28 @@
         <v>45</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:L24" si="3">G15/$C18*$C22</f>
-        <v>7.348433068468659E-6</v>
+        <f t="shared" ref="G24:L24" si="4">G15/$C18*$C22</f>
+        <v>7.0811772609818257E-6</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="3"/>
-        <v>9.4204283628409155E-6</v>
+        <f t="shared" si="4"/>
+        <v>5.2256762408022249E-6</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1780745747329586E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.4223848306190749E-5</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>3.9363393472984999E-6</v>
+        <f t="shared" si="4"/>
+        <v>2.5366405879488331E-5</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
-        <v>9.1060320093948335E-6</v>
+        <f t="shared" si="4"/>
+        <v>-7.7245045527844159E-6</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="3"/>
-        <v>3.6376872587440164E-6</v>
+        <f t="shared" si="4"/>
+        <v>7.1562148086080753E-6</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -1991,27 +1995,27 @@
       </c>
       <c r="G25" s="7">
         <f>(G21-(G21^2-G24/PI())^0.5)*1000</f>
-        <v>0.23965115707403911</v>
+        <v>0.14327793990897164</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" ref="H25:L25" si="4">(H21-(H21^2-H24/PI())^0.5)*1000</f>
-        <v>0.30943665216836069</v>
+        <f t="shared" ref="H25:L25" si="5">(H21-(H21^2-H24/PI())^0.5)*1000</f>
+        <v>0.10548098568722089</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.47739554722256611</v>
+        <f t="shared" si="5"/>
+        <v>0.29051924191247047</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="4"/>
-        <v>7.8698069737485193E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.52605422460582063</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.29878101047147843</v>
+        <f t="shared" si="5"/>
+        <v>-0.24011318246304481</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="4"/>
-        <v>0.1171639201487662</v>
+        <f t="shared" si="5"/>
+        <v>0.23322896723943637</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -2022,28 +2026,28 @@
         <v>51</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26:L26" si="5">MAX(G25,G23)</f>
-        <v>0.23965115707403911</v>
+        <f t="shared" ref="G26:L26" si="6">MAX(G25,G23)</f>
+        <v>0.14327793990897164</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.30943665216836069</v>
+        <f t="shared" si="6"/>
+        <v>0.10548098568722089</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.47739554722256611</v>
+        <f t="shared" si="6"/>
+        <v>0.29051924191247047</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.37233650646273808</v>
+        <f t="shared" si="6"/>
+        <v>0.52605422460582063</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.29878101047147843</v>
+        <f t="shared" si="6"/>
+        <v>1.4045493631664598</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="5"/>
-        <v>0.24596816032669727</v>
+        <f t="shared" si="6"/>
+        <v>0.23322896723943637</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -2064,15 +2068,15 @@
         <v>1763.6239364324781</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:J29" si="6">MAX(ABS(H14),ABS(H15))*$C23</f>
+        <f t="shared" ref="H29:J29" si="7">MAX(ABS(H14),ABS(H15))*$C23</f>
         <v>2260.9028070818199</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5227.3789793591004</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6087.9374110771996</v>
       </c>
       <c r="K29" s="6"/>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922ADCB3-5213-4141-B355-1ABFA2A77182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B75D7-5978-4F1D-9B25-AA23A1658D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontVD V2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -80,36 +80,18 @@
     <t>Brake</t>
   </si>
   <si>
-    <t>Bump</t>
-  </si>
-  <si>
-    <t>Brake Bump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corner Outside </t>
   </si>
   <si>
     <t>Corner Outside Brake</t>
   </si>
   <si>
-    <t>Corner Outside Bump</t>
-  </si>
-  <si>
-    <t>Corner Outside Brake Bump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corner Inside </t>
   </si>
   <si>
     <t>Corner Inside Brake</t>
   </si>
   <si>
-    <t>Corner Inner Bump</t>
-  </si>
-  <si>
-    <t>Corner Inner Brake Bump</t>
-  </si>
-  <si>
     <t>Max compression</t>
   </si>
   <si>
@@ -189,12 +171,63 @@
   </si>
   <si>
     <t>Critical Thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/in</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Brake Impact</t>
+  </si>
+  <si>
+    <t>Corner Outside Impact</t>
+  </si>
+  <si>
+    <t>Corner Outside Brake Impact</t>
+  </si>
+  <si>
+    <t>Corner Inner Impact</t>
+  </si>
+  <si>
+    <t>Corner Inner Brake Impact</t>
+  </si>
+  <si>
+    <t>Full squat</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>20SWG</t>
+  </si>
+  <si>
+    <t>.036"</t>
+  </si>
+  <si>
+    <t>16SWG</t>
+  </si>
+  <si>
+    <t>.064"</t>
+  </si>
+  <si>
+    <t>3/8" 16SWG</t>
+  </si>
+  <si>
+    <t>1/2" 20SWG</t>
+  </si>
+  <si>
+    <t>Gauge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -706,6 +739,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1265,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>-1500</v>
@@ -1309,43 +1344,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E6">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-777.19490018076601</v>
+        <v>-1395.31918233285</v>
       </c>
       <c r="H6">
-        <v>-706.02512879588403</v>
+        <v>-1248.59139822629</v>
       </c>
       <c r="I6">
-        <v>1706.86179674289</v>
+        <v>3086.9642233719201</v>
       </c>
       <c r="J6">
-        <v>1571.77546753049</v>
+        <v>2944.2937595571102</v>
       </c>
       <c r="K6">
-        <v>-1092.72384112738</v>
+        <v>-2299.2438749927201</v>
       </c>
       <c r="L6">
-        <v>550.38607294606697</v>
+        <v>976.77524681920704</v>
       </c>
       <c r="M6">
-        <v>874.22629372799304</v>
+        <v>1559.49030448701</v>
       </c>
       <c r="N6">
-        <v>1632.3147029302099</v>
+        <v>2997.5468897268001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1353,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>-1060</v>
@@ -1397,43 +1432,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E8">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F8">
         <v>-200</v>
       </c>
       <c r="G8">
-        <v>-881.81196821623905</v>
+        <v>-1499.9362503683301</v>
       </c>
       <c r="H8">
-        <v>-660.89656712835597</v>
+        <v>-1203.46283655876</v>
       </c>
       <c r="I8">
-        <v>1518.6123875615699</v>
+        <v>2898.7148141906</v>
       </c>
       <c r="J8">
-        <v>1629.53875908796</v>
+        <v>3002.0570511145902</v>
       </c>
       <c r="K8">
-        <v>-1086.4421433959201</v>
+        <v>-2292.96217726127</v>
       </c>
       <c r="L8">
-        <v>719.46034355487404</v>
+        <v>1145.8495174280099</v>
       </c>
       <c r="M8">
-        <v>924.740843046809</v>
+        <v>1607.9343245687</v>
       </c>
       <c r="N8">
-        <v>1566.26364658588</v>
+        <v>2931.5639406714999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1441,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>-1060</v>
@@ -1485,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1529,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>-1060</v>
@@ -1573,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1617,7 +1652,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>-1060</v>
@@ -1661,43 +1696,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="F14">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>-881.81196821623905</v>
+        <v>-216.81609908787701</v>
       </c>
       <c r="H14">
-        <v>-1130.45140354091</v>
+        <v>-111.665287410429</v>
       </c>
       <c r="I14">
-        <v>-2613.6894896795502</v>
+        <v>577.81699057906906</v>
       </c>
       <c r="J14">
-        <v>-472.36072167582</v>
+        <v>989.473271269203</v>
       </c>
       <c r="K14">
-        <v>-1092.72384112738</v>
+        <v>-1823.35147667367</v>
       </c>
       <c r="L14">
-        <v>-436.52247104928199</v>
+        <v>102.477241707106</v>
       </c>
       <c r="M14">
-        <v>117.266635243352</v>
+        <v>211.079943438035</v>
       </c>
       <c r="N14">
-        <v>475.76948494638202</v>
+        <v>856.38507290348696</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1705,397 +1740,512 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D15">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="E15">
         <v>750</v>
       </c>
       <c r="F15">
+        <v>-200</v>
+      </c>
+      <c r="G15">
+        <v>-1499.9362503683301</v>
+      </c>
+      <c r="H15">
+        <v>-1248.59139822629</v>
+      </c>
+      <c r="I15">
+        <v>-2613.6894896795502</v>
+      </c>
+      <c r="J15">
+        <v>-472.36072167582</v>
+      </c>
+      <c r="K15">
+        <v>-2299.2438749927201</v>
+      </c>
+      <c r="L15">
+        <v>-436.52247104928199</v>
+      </c>
+      <c r="M15">
+        <v>117.266635243352</v>
+      </c>
+      <c r="N15">
+        <v>475.76948494638202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="D16">
+        <v>2600</v>
+      </c>
+      <c r="E16">
+        <v>1600</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>849.74127131781904</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>627.081148896267</v>
       </c>
-      <c r="I15">
-        <v>1706.86179674289</v>
-      </c>
-      <c r="J15">
+      <c r="I16">
+        <v>3086.9642233719201</v>
+      </c>
+      <c r="J16">
         <v>3043.9687055385998</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>-926.94054633412998</v>
       </c>
-      <c r="L15">
-        <v>858.74577703296904</v>
-      </c>
-      <c r="M15">
-        <v>1136.6425941468999</v>
-      </c>
-      <c r="N15">
+      <c r="L16">
+        <v>1145.8495174280099</v>
+      </c>
+      <c r="M16">
+        <v>1607.9343245687</v>
+      </c>
+      <c r="N16">
         <v>4699.7865205453099</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G16" s="9" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>210000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>240000000</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
-        <v>210000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
-        <v>240000000</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="G20" s="3">
+        <v>275</v>
+      </c>
+      <c r="H20" s="3">
+        <v>278</v>
+      </c>
+      <c r="I20" s="3">
+        <v>391</v>
+      </c>
+      <c r="J20" s="3">
+        <v>436</v>
+      </c>
+      <c r="K20" s="3">
+        <v>584</v>
+      </c>
+      <c r="L20" s="3">
+        <v>329</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3">
+        <f>25.4*3/8</f>
+        <v>9.5249999999999986</v>
+      </c>
+      <c r="H21" s="3">
+        <f>25.4*3/8</f>
+        <v>9.5249999999999986</v>
+      </c>
+      <c r="I21" s="3">
+        <f>25.4*4/8</f>
+        <v>12.7</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="I21:J21" si="0">25.4*3/8</f>
+        <v>9.5249999999999986</v>
+      </c>
+      <c r="K21" s="3">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3">
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="3">
-        <v>275</v>
-      </c>
-      <c r="H19" s="3">
-        <v>278</v>
-      </c>
-      <c r="I19" s="3">
-        <v>391</v>
-      </c>
-      <c r="J19" s="3">
-        <v>436</v>
-      </c>
-      <c r="K19" s="3">
-        <v>584</v>
-      </c>
-      <c r="L19" s="3">
-        <v>329</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3">
-        <f>25.4*5/8</f>
-        <v>15.875</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" ref="H20:J20" si="0">25.4*5/8</f>
-        <v>15.875</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>15.875</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="0"/>
-        <v>15.875</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="4">
-        <f>G20/2000</f>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21:L21" si="1">H20/2000</f>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="1"/>
-        <v>7.9375000000000001E-3</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="5">
-        <f>-G14*(G19/1000)^2/(PI()^2*$C17/$C21)</f>
-        <v>6.4350560218616161E-11</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" ref="H22:L22" si="2">-H14*(H19/1000)^2/(PI()^2*$C17/$C21)</f>
-        <v>8.4304827631150527E-11</v>
-      </c>
-      <c r="I22" s="5">
+        <v>43</v>
+      </c>
+      <c r="G22" s="4">
+        <f>G21/2000</f>
+        <v>4.7624999999999994E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" ref="H22:L22" si="1">H21/2000</f>
+        <v>4.7624999999999994E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7624999999999994E-3</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7625000000000002E-3</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5">
+        <f>-G15*(G20/1000)^2/(PI()^2*$C18/$C22)</f>
+        <v>1.0945841231737897E-10</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" ref="H23:L23" si="2">-H15*(H20/1000)^2/(PI()^2*$C18/$C22)</f>
+        <v>9.3115265529762574E-11</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="2"/>
         <v>3.8558351830537818E-10</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="2"/>
         <v>8.6647834144362775E-11</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="2"/>
-        <v>3.596226760506807E-10</v>
-      </c>
-      <c r="L22" s="5">
+        <v>7.5669643518067137E-10</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="2"/>
         <v>4.5594174433779885E-11</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="N23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7">
-        <f>IF(G22&gt;0,(G21-((-G22+PI() * (G21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>4.1280088499885681E-2</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" ref="H23:L23" si="3">IF(H22&gt;0,(H21-((-H22+PI() * (H21)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>5.4212970773948738E-2</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="7">
+        <f>IF(G23&gt;0,(G22-((-G23+PI() * (G22)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.36170836774788562</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" ref="H24:L24" si="3">IF(H23&gt;0,(H22-((-H23+PI() * (H22)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.30190158314091253</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="3"/>
-        <v>0.2577050318003215</v>
-      </c>
-      <c r="J23" s="7">
+        <v>0.54575809111232554</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="3"/>
-        <v>5.5735716678726246E-2</v>
-      </c>
-      <c r="K23" s="7">
+        <v>0.27888490764448742</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>1.4045493631664598</v>
-      </c>
-      <c r="L23" s="7">
+        <v>0.25009028757241175</v>
+      </c>
+      <c r="L24" s="7">
         <f t="shared" si="3"/>
-        <v>0.1203828578856857</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" ref="G24:L24" si="4">G15/$C18*$C22</f>
+        <v>0.14044665136541801</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5">
+        <f>G16/$C19*$C23</f>
         <v>7.0811772609818257E-6</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
+        <f t="shared" ref="H25:L25" si="4">H16/$C19*$C23</f>
+        <v>5.2256762408022249E-6</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
-        <v>5.2256762408022249E-6</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="4"/>
-        <v>1.4223848306190749E-5</v>
-      </c>
-      <c r="J24" s="5">
+        <v>2.5724701861432667E-5</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>2.5366405879488331E-5</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>-7.7245045527844159E-6</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
-        <v>7.1562148086080753E-6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="7">
-        <f>(G21-(G21^2-G24/PI())^0.5)*1000</f>
-        <v>0.14327793990897164</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" ref="H25:L25" si="5">(H21-(H21^2-H24/PI())^0.5)*1000</f>
-        <v>0.10548098568722089</v>
-      </c>
-      <c r="I25" s="7">
+        <v>9.5487459785667492E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="7">
+        <f>(G22-(G22^2-G25/PI())^0.5)*1000</f>
+        <v>0.24283214472461176</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:L26" si="5">(H22-(H22^2-H25/PI())^0.5)*1000</f>
+        <v>0.17795838272168135</v>
+      </c>
+      <c r="I26" s="7">
         <f t="shared" si="5"/>
-        <v>0.29051924191247047</v>
-      </c>
-      <c r="J25" s="7">
+        <v>0.68130763946609807</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="5"/>
-        <v>0.52605422460582063</v>
-      </c>
-      <c r="K25" s="7">
+        <v>0.94058575690031621</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="5"/>
-        <v>-0.24011318246304481</v>
-      </c>
-      <c r="L25" s="7">
+        <v>-0.12219275478505057</v>
+      </c>
+      <c r="L26" s="7">
         <f t="shared" si="5"/>
-        <v>0.23322896723943637</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
+        <v>0.33057648933733452</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" ref="G27:L27" si="6">MAX(G26,G24)</f>
+        <v>0.36170836774788562</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="6"/>
+        <v>0.30190158314091253</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="6"/>
+        <v>0.68130763946609807</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="6"/>
+        <v>0.94058575690031621</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="6"/>
+        <v>0.25009028757241175</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="6"/>
+        <v>0.33057648933733452</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="9"/>
+      <c r="F28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" ref="G26:L26" si="6">MAX(G25,G23)</f>
-        <v>0.14327793990897164</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="6"/>
-        <v>0.10548098568722089</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="6"/>
-        <v>0.29051924191247047</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="6"/>
-        <v>0.52605422460582063</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="6"/>
-        <v>1.4045493631664598</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="6"/>
-        <v>0.23322896723943637</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="6">
-        <f>MAX(ABS(G14),ABS(G15))*$C23</f>
-        <v>1763.6239364324781</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" ref="H29:J29" si="7">MAX(ABS(H14),ABS(H15))*$C23</f>
-        <v>2260.9028070818199</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="G28" s="10">
+        <f>G27/25.4</f>
+        <v>1.4240486919208095E-2</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" ref="H28:L28" si="7">H27/25.4</f>
+        <v>1.1885889100035928E-2</v>
+      </c>
+      <c r="I28" s="10">
         <f t="shared" si="7"/>
+        <v>2.6823135412051106E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="7"/>
+        <v>3.7030935311036073E-2</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="7"/>
+        <v>9.8460743138744783E-3</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="7"/>
+        <v>1.301482241485569E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G31" s="6">
+        <f>MAX(ABS(G14),ABS(G15))*$C24</f>
+        <v>2999.8725007366602</v>
+      </c>
+      <c r="H31" s="6">
+        <f>MAX(ABS(H14),ABS(H15))*$C24</f>
+        <v>2497.1827964525801</v>
+      </c>
+      <c r="I31" s="6">
+        <f>MAX(ABS(I14),ABS(I15))*$C24</f>
         <v>5227.3789793591004</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" si="7"/>
-        <v>6087.9374110771996</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6">
-        <f>MAX(ABS(M14),ABS(M15))*$C23</f>
-        <v>2273.2851882937998</v>
-      </c>
-      <c r="N29" s="6">
-        <f>MAX(ABS(N14),ABS(N15))*$C23</f>
-        <v>9399.5730410906199</v>
+      <c r="J31" s="6">
+        <f>MAX(ABS(J14),ABS(J15))*$C24</f>
+        <v>1978.946542538406</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6">
+        <f>MAX(ABS(M14),ABS(M15))*$C24</f>
+        <v>422.15988687607</v>
+      </c>
+      <c r="N31" s="6">
+        <f>MAX(ABS(N14),ABS(N15))*$C24</f>
+        <v>1712.7701458069739</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B75D7-5978-4F1D-9B25-AA23A1658D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C9050-1B53-4332-BDBA-136356678043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontVD V2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Scenario</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Gauge</t>
+  </si>
+  <si>
+    <t>Outer diameter/in</t>
+  </si>
+  <si>
+    <t>1/2" 16SWG</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -741,6 +747,7 @@
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1099,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:P34"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,40 +1222,40 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>-750</v>
+        <v>-2600</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>237.63434135531301</v>
+        <v>984.40356787462497</v>
       </c>
       <c r="H3">
-        <v>-495.995945143462</v>
+        <v>-1636.73758211924</v>
       </c>
       <c r="I3">
-        <v>-929.30696672290196</v>
+        <v>-3649.61007025352</v>
       </c>
       <c r="J3">
-        <v>1762.6106188241899</v>
+        <v>5377.4403146874201</v>
       </c>
       <c r="K3">
-        <v>-1005.50645417127</v>
+        <v>-2135.1249843317601</v>
       </c>
       <c r="L3">
-        <v>257.89785278618399</v>
+        <v>818.13682172758195</v>
       </c>
       <c r="M3">
-        <v>612.48243916388799</v>
+        <v>2154.3245312630302</v>
       </c>
       <c r="N3">
-        <v>2372.9223949142802</v>
+        <v>7882.2473194717504</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1391,40 +1398,40 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>-1060</v>
+        <v>-1850</v>
       </c>
       <c r="D7">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E7">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.453398690886203</v>
+        <v>-183.665359747797</v>
       </c>
       <c r="H7">
-        <v>-1130.45140354091</v>
+        <v>-1997.0308326412</v>
       </c>
       <c r="I7">
-        <v>-466.76874851925402</v>
+        <v>-690.07575669685104</v>
       </c>
       <c r="J7">
-        <v>2986.2054139811198</v>
+        <v>5425.08771880112</v>
       </c>
       <c r="K7">
-        <v>-1058.77749525068</v>
+        <v>-2240.9508909450801</v>
       </c>
       <c r="L7">
-        <v>689.67150642416198</v>
+        <v>1225.76437202025</v>
       </c>
       <c r="M7">
-        <v>1108.7867097057599</v>
+        <v>1948.2755765690899</v>
       </c>
       <c r="N7">
-        <v>3247.79605814568</v>
+        <v>5805.3920684731902</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1479,40 +1486,40 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <v>-1060</v>
+        <v>-1850</v>
       </c>
       <c r="D9">
-        <v>1060</v>
+        <v>1850</v>
       </c>
       <c r="E9">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="F9">
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>-183.070466726359</v>
+        <v>-288.28242778327001</v>
       </c>
       <c r="H9">
-        <v>-1085.32284187339</v>
+        <v>-1951.9022709736701</v>
       </c>
       <c r="I9">
-        <v>-655.01815770057101</v>
+        <v>-878.32516587816895</v>
       </c>
       <c r="J9">
-        <v>3043.9687055385998</v>
+        <v>5482.8510103586004</v>
       </c>
       <c r="K9">
-        <v>-1052.4957975192301</v>
+        <v>-2234.66919321363</v>
       </c>
       <c r="L9">
-        <v>858.74577703296904</v>
+        <v>1394.8386426290599</v>
       </c>
       <c r="M9">
-        <v>1043.53587929013</v>
+        <v>1883.1304118308401</v>
       </c>
       <c r="N9">
-        <v>3422.84245709377</v>
+        <v>5976.16394890427</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1743,7 +1750,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>-1500</v>
+        <v>-2600</v>
       </c>
       <c r="D15">
         <v>-1500</v>
@@ -1758,10 +1765,10 @@
         <v>-1499.9362503683301</v>
       </c>
       <c r="H15">
-        <v>-1248.59139822629</v>
+        <v>-1997.0308326412</v>
       </c>
       <c r="I15">
-        <v>-2613.6894896795502</v>
+        <v>-3649.61007025352</v>
       </c>
       <c r="J15">
         <v>-472.36072167582</v>
@@ -1799,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>849.74127131781904</v>
+        <v>984.40356787462497</v>
       </c>
       <c r="H16">
         <v>627.081148896267</v>
@@ -1808,34 +1815,34 @@
         <v>3086.9642233719201</v>
       </c>
       <c r="J16">
-        <v>3043.9687055385998</v>
+        <v>5482.8510103586004</v>
       </c>
       <c r="K16">
         <v>-926.94054633412998</v>
       </c>
       <c r="L16">
-        <v>1145.8495174280099</v>
+        <v>1394.8386426290599</v>
       </c>
       <c r="M16">
-        <v>1607.9343245687</v>
+        <v>2154.3245312630302</v>
       </c>
       <c r="N16">
-        <v>4699.7865205453099</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G17" s="11" t="s">
+        <v>7882.2473194717504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1843,21 +1850,21 @@
         <v>210000000000</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>240000000</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1894,350 +1901,390 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="3">
-        <f>25.4*3/8</f>
-        <v>9.5249999999999986</v>
-      </c>
-      <c r="H21" s="3">
-        <f>25.4*3/8</f>
-        <v>9.5249999999999986</v>
-      </c>
-      <c r="I21" s="3">
-        <f>25.4*4/8</f>
+      <c r="G22" s="4">
+        <f>G21*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="I21:J21" si="0">25.4*3/8</f>
-        <v>9.5249999999999986</v>
-      </c>
-      <c r="K21" s="3">
-        <v>20</v>
-      </c>
-      <c r="L21" s="3">
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="H22" s="4">
+        <f t="shared" ref="H22:L22" si="0">H21*25.4</f>
+        <v>12.7</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="4">
-        <f>G21/2000</f>
-        <v>4.7624999999999994E-3</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" ref="H22:L22" si="1">H21/2000</f>
-        <v>4.7624999999999994E-3</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="G23" s="4">
+        <f>G22/2000</f>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:L23" si="1">H22/2000</f>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>4.7624999999999994E-3</v>
-      </c>
-      <c r="K22" s="4">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="L22" s="4">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
-        <v>4.7625000000000002E-3</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+        <v>6.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="5">
-        <f>-G15*(G20/1000)^2/(PI()^2*$C18/$C22)</f>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24:L24" si="2">-G15*(G20/1000)^2/(PI()^2*$C18/$C24)</f>
         <v>1.0945841231737897E-10</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" ref="H23:L23" si="2">-H15*(H20/1000)^2/(PI()^2*$C18/$C22)</f>
-        <v>9.3115265529762574E-11</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>3.8558351830537818E-10</v>
-      </c>
-      <c r="J23" s="5">
+        <v>1.4893107266049462E-10</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.3840729623304376E-10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>8.6647834144362775E-11</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>7.5669643518067137E-10</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>4.5594174433779885E-11</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="7">
-        <f>IF(G23&gt;0,(G22-((-G23+PI() * (G22)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.36170836774788562</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" ref="H24:L24" si="3">IF(H23&gt;0,(H22-((-H23+PI() * (H22)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.30190158314091253</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="G25" s="7">
+        <f>IF(G24&gt;0,(G23-((-G24+PI() * (G23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.14068135198575318</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:L25" si="3">IF(H24&gt;0,(H23-((-H24+PI() * (H23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>0.19384269863093484</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="3"/>
-        <v>0.54575809111232554</v>
-      </c>
-      <c r="J24" s="7">
+        <v>0.81234188231726645</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>0.27888490764448742</v>
-      </c>
-      <c r="K24" s="7">
+        <v>0.11057230470338381</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>0.25009028757241175</v>
-      </c>
-      <c r="L24" s="7">
+        <v>1.2767299772687684</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="3"/>
-        <v>0.14044665136541801</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
+        <v>5.745622690430871E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="5">
-        <f>G16/$C19*$C23</f>
-        <v>7.0811772609818257E-6</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" ref="H25:L25" si="4">H16/$C19*$C23</f>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:L26" si="4">G16/$C19*$C25</f>
+        <v>8.2033630656218741E-6</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="4"/>
         <v>5.2256762408022249E-6</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <f t="shared" si="4"/>
         <v>2.5724701861432667E-5</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>2.5366405879488331E-5</v>
-      </c>
-      <c r="K25" s="5">
+        <v>4.569042508632167E-5</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>-7.7245045527844159E-6</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <f t="shared" si="4"/>
-        <v>9.5487459785667492E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="1" t="s">
+        <v>1.1623655355242166E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="7">
-        <f>(G22-(G22^2-G25/PI())^0.5)*1000</f>
-        <v>0.24283214472461176</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" ref="H26:L26" si="5">(H22-(H22^2-H25/PI())^0.5)*1000</f>
-        <v>0.17795838272168135</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="G27" s="7">
+        <f>(G23-(G23^2-G26/PI())^0.5)*1000</f>
+        <v>0.20904824670820321</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:L27" si="5">(H23-(H23^2-H26/PI())^0.5)*1000</f>
+        <v>0.13235449783787456</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="5"/>
         <v>0.68130763946609807</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="7">
         <f t="shared" si="5"/>
-        <v>0.94058575690031621</v>
-      </c>
-      <c r="K26" s="7">
+        <v>1.2727186417252849</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>-0.12219275478505057</v>
-      </c>
-      <c r="L26" s="7">
+        <v>-0.19074049057314202</v>
+      </c>
+      <c r="L27" s="7">
         <f t="shared" si="5"/>
-        <v>0.33057648933733452</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
+        <v>0.29834108802939424</v>
+      </c>
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="8">
-        <f t="shared" ref="G27:L27" si="6">MAX(G26,G24)</f>
-        <v>0.36170836774788562</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:L28" si="6">MAX(G27,G25)</f>
+        <v>0.20904824670820321</v>
+      </c>
+      <c r="H28" s="8">
         <f t="shared" si="6"/>
-        <v>0.30190158314091253</v>
-      </c>
-      <c r="I27" s="8">
+        <v>0.19384269863093484</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" si="6"/>
-        <v>0.68130763946609807</v>
-      </c>
-      <c r="J27" s="8">
+        <v>0.81234188231726645</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="6"/>
-        <v>0.94058575690031621</v>
-      </c>
-      <c r="K27" s="8">
+        <v>1.2727186417252849</v>
+      </c>
+      <c r="K28" s="8">
         <f t="shared" si="6"/>
-        <v>0.25009028757241175</v>
-      </c>
-      <c r="L27" s="8">
+        <v>1.2767299772687684</v>
+      </c>
+      <c r="L28" s="8">
         <f t="shared" si="6"/>
-        <v>0.33057648933733452</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="9"/>
-      <c r="F28" s="1" t="s">
+        <v>0.29834108802939424</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E29" s="9"/>
+      <c r="F29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="10">
-        <f>G27/25.4</f>
-        <v>1.4240486919208095E-2</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" ref="H28:L28" si="7">H27/25.4</f>
-        <v>1.1885889100035928E-2</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="G29" s="10">
+        <f>G28/25.4</f>
+        <v>8.2302459333938281E-3</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" ref="H29:L29" si="7">H28/25.4</f>
+        <v>7.631602308304522E-3</v>
+      </c>
+      <c r="I29" s="10">
         <f t="shared" si="7"/>
-        <v>2.6823135412051106E-2</v>
-      </c>
-      <c r="J28" s="10">
+        <v>3.1981963870758523E-2</v>
+      </c>
+      <c r="J29" s="10">
         <f t="shared" si="7"/>
-        <v>3.7030935311036073E-2</v>
-      </c>
-      <c r="K28" s="10">
+        <v>5.0107033138790745E-2</v>
+      </c>
+      <c r="K29" s="10">
         <f t="shared" si="7"/>
-        <v>9.8460743138744783E-3</v>
-      </c>
-      <c r="L28" s="10">
+        <v>5.0264959734990886E-2</v>
+      </c>
+      <c r="L29" s="10">
         <f t="shared" si="7"/>
-        <v>1.301482241485569E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G29" t="s">
+        <v>1.1745712127141506E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
         <v>59</v>
       </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G32" s="6">
+        <f>MAX(ABS(G15),ABS(G16))*$C25</f>
+        <v>2999.8725007366602</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" ref="H32:N32" si="8">MAX(ABS(H15),ABS(H16))*$C25</f>
+        <v>3994.0616652824001</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="8"/>
+        <v>7299.22014050704</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="8"/>
+        <v>10965.702020717201</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="8"/>
+        <v>4598.4877499854401</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="8"/>
+        <v>2789.6772852581198</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="8"/>
+        <v>4308.6490625260603</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="8"/>
+        <v>15764.494638943501</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
         <v>59</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
         <v>60</v>
       </c>
-      <c r="J29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G31" s="6">
-        <f>MAX(ABS(G14),ABS(G15))*$C24</f>
-        <v>2999.8725007366602</v>
-      </c>
-      <c r="H31" s="6">
-        <f>MAX(ABS(H14),ABS(H15))*$C24</f>
-        <v>2497.1827964525801</v>
-      </c>
-      <c r="I31" s="6">
-        <f>MAX(ABS(I14),ABS(I15))*$C24</f>
-        <v>5227.3789793591004</v>
-      </c>
-      <c r="J31" s="6">
-        <f>MAX(ABS(J14),ABS(J15))*$C24</f>
-        <v>1978.946542538406</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <f>MAX(ABS(M14),ABS(M15))*$C24</f>
-        <v>422.15988687607</v>
-      </c>
-      <c r="N31" s="6">
-        <f>MAX(ABS(N14),ABS(N15))*$C24</f>
-        <v>1712.7701458069739</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O32" t="s">
-        <v>61</v>
-      </c>
-      <c r="P32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O33" t="s">
-        <v>55</v>
-      </c>
-      <c r="P33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O34" t="s">
-        <v>57</v>
-      </c>
-      <c r="P34" t="s">
-        <v>58</v>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2292,7 @@
     <mergeCell ref="G17:N17"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G30:N30"/>
+    <mergeCell ref="G31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C9050-1B53-4332-BDBA-136356678043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B77CB-43F5-4A2C-8641-B6DB5C9D258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,10 +1208,10 @@
         <v>56.931800948392599</v>
       </c>
       <c r="M2">
-        <v>117.266635243352</v>
+        <v>151.537360375757</v>
       </c>
       <c r="N2">
-        <v>475.76948494638202</v>
+        <v>764.26036729625002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>818.13682172758195</v>
       </c>
       <c r="M3">
-        <v>2154.3245312630302</v>
+        <v>1629.3576674045401</v>
       </c>
       <c r="N3">
-        <v>7882.2473194717504</v>
+        <v>4726.86081882292</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>226.00607155719999</v>
       </c>
       <c r="M4">
-        <v>220.447062619983</v>
+        <v>230.84248859645501</v>
       </c>
       <c r="N4">
-        <v>552.17548008118297</v>
+        <v>684.39309374299398</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1340,10 +1340,10 @@
         <v>627.93817523278301</v>
       </c>
       <c r="M5">
-        <v>1136.6425941468999</v>
+        <v>869.62618738377398</v>
       </c>
       <c r="N5">
-        <v>4699.7865205453099</v>
+        <v>2743.5725426601498</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1384,10 +1384,10 @@
         <v>976.77524681920704</v>
       </c>
       <c r="M6">
-        <v>1559.49030448701</v>
+        <v>2140.0425675281399</v>
       </c>
       <c r="N6">
-        <v>2997.5468897268001</v>
+        <v>5235.5649515386203</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1428,10 +1428,10 @@
         <v>1225.76437202025</v>
       </c>
       <c r="M7">
-        <v>1948.2755765690899</v>
+        <v>2061.05616117712</v>
       </c>
       <c r="N7">
-        <v>5805.3920684731902</v>
+        <v>5110.0866474692402</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1472,10 +1472,10 @@
         <v>1145.8495174280099</v>
       </c>
       <c r="M8">
-        <v>1607.9343245687</v>
+        <v>2193.3559483512799</v>
       </c>
       <c r="N8">
-        <v>2931.5639406714999</v>
+        <v>5122.0817141143298</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1516,10 +1516,10 @@
         <v>1394.8386426290599</v>
       </c>
       <c r="M9">
-        <v>1883.1304118308401</v>
+        <v>2059.0964812847801</v>
       </c>
       <c r="N9">
-        <v>5976.16394890427</v>
+        <v>5094.2796402855001</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>-436.52247104928199</v>
       </c>
       <c r="M10">
-        <v>658.70943279036499</v>
+        <v>904.79246977002094</v>
       </c>
       <c r="N10">
-        <v>920.41458649687002</v>
+        <v>1366.3334780088501</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1604,10 +1604,10 @@
         <v>-7.7438646658849102</v>
       </c>
       <c r="M11">
-        <v>941.25596609528395</v>
+        <v>809.44712372414995</v>
       </c>
       <c r="N11">
-        <v>3471.2845522486</v>
+        <v>2114.0654270662399</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1648,10 +1648,10 @@
         <v>-267.44820044047401</v>
       </c>
       <c r="M12">
-        <v>642.42897665533997</v>
+        <v>863.95968925822297</v>
       </c>
       <c r="N12">
-        <v>1102.5038801815199</v>
+        <v>1506.23637414585</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1692,10 +1692,10 @@
         <v>161.330405942922</v>
       </c>
       <c r="M13">
-        <v>816.29339773235097</v>
+        <v>710.94418725967796</v>
       </c>
       <c r="N13">
-        <v>3691.4884161779401</v>
+        <v>2269.8265340818598</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1736,10 +1736,10 @@
         <v>102.477241707106</v>
       </c>
       <c r="M14">
-        <v>211.079943438035</v>
+        <v>272.76724867636199</v>
       </c>
       <c r="N14">
-        <v>856.38507290348696</v>
+        <v>1375.66866113325</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1780,10 +1780,10 @@
         <v>-436.52247104928199</v>
       </c>
       <c r="M15">
-        <v>117.266635243352</v>
+        <v>151.537360375757</v>
       </c>
       <c r="N15">
-        <v>475.76948494638202</v>
+        <v>684.39309374299398</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1824,10 +1824,10 @@
         <v>1394.8386426290599</v>
       </c>
       <c r="M16">
-        <v>2154.3245312630302</v>
+        <v>2193.3559483512799</v>
       </c>
       <c r="N16">
-        <v>7882.2473194717504</v>
+        <v>5235.5649515386203</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="M32" s="6">
         <f t="shared" si="8"/>
-        <v>4308.6490625260603</v>
+        <v>4386.7118967025599</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="8"/>
-        <v>15764.494638943501</v>
+        <v>10471.129903077241</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.3">

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B77CB-43F5-4A2C-8641-B6DB5C9D258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01AE21-D6CC-420D-95B3-ED799AE740C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Scenario</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Corner Outside Brake</t>
   </si>
   <si>
-    <t xml:space="preserve">Corner Inside </t>
-  </si>
-  <si>
-    <t>Corner Inside Brake</t>
-  </si>
-  <si>
     <t>Max compression</t>
   </si>
   <si>
@@ -176,55 +170,10 @@
     <t>Critical Thickness/in</t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Brake Impact</t>
-  </si>
-  <si>
-    <t>Corner Outside Impact</t>
-  </si>
-  <si>
-    <t>Corner Outside Brake Impact</t>
-  </si>
-  <si>
-    <t>Corner Inner Impact</t>
-  </si>
-  <si>
-    <t>Corner Inner Brake Impact</t>
-  </si>
-  <si>
-    <t>Full squat</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>20SWG</t>
-  </si>
-  <si>
-    <t>.036"</t>
-  </si>
-  <si>
-    <t>16SWG</t>
-  </si>
-  <si>
-    <t>.064"</t>
-  </si>
-  <si>
     <t>3/8" 16SWG</t>
   </si>
   <si>
-    <t>1/2" 20SWG</t>
-  </si>
-  <si>
-    <t>Gauge</t>
-  </si>
-  <si>
     <t>Outer diameter/in</t>
-  </si>
-  <si>
-    <t>1/2" 16SWG</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A10:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,455 +1078,59 @@
     <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>750</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-120.453388382154</v>
-      </c>
-      <c r="H2">
-        <v>-62.0362707835721</v>
-      </c>
-      <c r="I2">
-        <v>321.009439210594</v>
-      </c>
-      <c r="J2">
-        <v>549.70737292733497</v>
-      </c>
-      <c r="K2">
-        <v>-1012.97304259648</v>
-      </c>
-      <c r="L2">
-        <v>56.931800948392599</v>
-      </c>
-      <c r="M2">
-        <v>151.537360375757</v>
-      </c>
-      <c r="N2">
-        <v>764.26036729625002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>-2600</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1600</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>984.40356787462497</v>
-      </c>
-      <c r="H3">
-        <v>-1636.73758211924</v>
-      </c>
-      <c r="I3">
-        <v>-3649.61007025352</v>
-      </c>
-      <c r="J3">
-        <v>5377.4403146874201</v>
-      </c>
-      <c r="K3">
-        <v>-2135.1249843317601</v>
-      </c>
-      <c r="L3">
-        <v>818.13682172758195</v>
-      </c>
-      <c r="M3">
-        <v>1629.3576674045401</v>
-      </c>
-      <c r="N3">
-        <v>4726.86081882292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
-      </c>
-      <c r="F4">
-        <v>-200</v>
-      </c>
-      <c r="G4">
-        <v>-225.07045641762701</v>
-      </c>
-      <c r="H4">
-        <v>-16.907709116044298</v>
-      </c>
-      <c r="I4">
-        <v>132.760030029277</v>
-      </c>
-      <c r="J4">
-        <v>607.47066448481303</v>
-      </c>
-      <c r="K4">
-        <v>-1006.69134486503</v>
-      </c>
-      <c r="L4">
-        <v>226.00607155719999</v>
-      </c>
-      <c r="M4">
-        <v>230.84248859645501</v>
-      </c>
-      <c r="N4">
-        <v>684.39309374299398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>-1500</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>750</v>
-      </c>
-      <c r="F5">
-        <v>-200</v>
-      </c>
-      <c r="G5">
-        <v>491.10500305730801</v>
-      </c>
-      <c r="H5">
-        <v>-884.82705783582503</v>
-      </c>
-      <c r="I5">
-        <v>-2367.8727818377101</v>
-      </c>
-      <c r="J5">
-        <v>3033.2771562785301</v>
-      </c>
-      <c r="K5">
-        <v>-991.75816801460496</v>
-      </c>
-      <c r="L5">
-        <v>627.93817523278301</v>
-      </c>
-      <c r="M5">
-        <v>869.62618738377398</v>
-      </c>
-      <c r="N5">
-        <v>2743.5725426601498</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2600</v>
-      </c>
-      <c r="E6">
-        <v>1600</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-1395.31918233285</v>
-      </c>
-      <c r="H6">
-        <v>-1248.59139822629</v>
-      </c>
-      <c r="I6">
-        <v>3086.9642233719201</v>
-      </c>
-      <c r="J6">
-        <v>2944.2937595571102</v>
-      </c>
-      <c r="K6">
-        <v>-2299.2438749927201</v>
-      </c>
-      <c r="L6">
-        <v>976.77524681920704</v>
-      </c>
-      <c r="M6">
-        <v>2140.0425675281399</v>
-      </c>
-      <c r="N6">
-        <v>5235.5649515386203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>-1850</v>
-      </c>
-      <c r="D7">
-        <v>1850</v>
-      </c>
-      <c r="E7">
-        <v>1600</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-183.665359747797</v>
-      </c>
-      <c r="H7">
-        <v>-1997.0308326412</v>
-      </c>
-      <c r="I7">
-        <v>-690.07575669685104</v>
-      </c>
-      <c r="J7">
-        <v>5425.08771880112</v>
-      </c>
-      <c r="K7">
-        <v>-2240.9508909450801</v>
-      </c>
-      <c r="L7">
-        <v>1225.76437202025</v>
-      </c>
-      <c r="M7">
-        <v>2061.05616117712</v>
-      </c>
-      <c r="N7">
-        <v>5110.0866474692402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2600</v>
-      </c>
-      <c r="E8">
-        <v>1600</v>
-      </c>
-      <c r="F8">
-        <v>-200</v>
-      </c>
-      <c r="G8">
-        <v>-1499.9362503683301</v>
-      </c>
-      <c r="H8">
-        <v>-1203.46283655876</v>
-      </c>
-      <c r="I8">
-        <v>2898.7148141906</v>
-      </c>
-      <c r="J8">
-        <v>3002.0570511145902</v>
-      </c>
-      <c r="K8">
-        <v>-2292.96217726127</v>
-      </c>
-      <c r="L8">
-        <v>1145.8495174280099</v>
-      </c>
-      <c r="M8">
-        <v>2193.3559483512799</v>
-      </c>
-      <c r="N8">
-        <v>5122.0817141143298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>-1850</v>
-      </c>
-      <c r="D9">
-        <v>1850</v>
-      </c>
-      <c r="E9">
-        <v>1600</v>
-      </c>
-      <c r="F9">
-        <v>-200</v>
-      </c>
-      <c r="G9">
-        <v>-288.28242778327001</v>
-      </c>
-      <c r="H9">
-        <v>-1951.9022709736701</v>
-      </c>
-      <c r="I9">
-        <v>-878.32516587816895</v>
-      </c>
-      <c r="J9">
-        <v>5482.8510103586004</v>
-      </c>
-      <c r="K9">
-        <v>-2234.66919321363</v>
-      </c>
-      <c r="L9">
-        <v>1394.8386426290599</v>
-      </c>
-      <c r="M9">
-        <v>2059.0964812847801</v>
-      </c>
-      <c r="N9">
-        <v>5094.2796402855001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-1500</v>
-      </c>
-      <c r="E10">
-        <v>750</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>536.28812341645801</v>
-      </c>
-      <c r="H10">
-        <v>581.95258722873905</v>
-      </c>
-      <c r="I10">
-        <v>-1064.8429183216999</v>
-      </c>
-      <c r="J10">
-        <v>-472.36072167582</v>
-      </c>
-      <c r="K10">
-        <v>-933.22224406558496</v>
-      </c>
-      <c r="L10">
-        <v>-436.52247104928199</v>
-      </c>
-      <c r="M10">
-        <v>904.79246977002094</v>
-      </c>
-      <c r="N10">
-        <v>1366.3334780088501</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>750</v>
@@ -1586,253 +1139,253 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>849.74127131781904</v>
+        <v>-120.453388382154</v>
       </c>
       <c r="H11">
-        <v>-220.28048421685</v>
+        <v>-62.0362707835721</v>
       </c>
       <c r="I11">
-        <v>-2425.4400804982401</v>
+        <v>321.009439210594</v>
       </c>
       <c r="J11">
-        <v>1541.6825069419899</v>
+        <v>549.70737292733497</v>
       </c>
       <c r="K11">
-        <v>-946.06303332701498</v>
+        <v>-1012.97304259648</v>
       </c>
       <c r="L11">
-        <v>-7.7438646658849102</v>
+        <v>56.931800948392599</v>
       </c>
       <c r="M11">
-        <v>809.44712372414995</v>
+        <v>151.537360375757</v>
       </c>
       <c r="N11">
-        <v>2114.0654270662399</v>
+        <v>764.26036729625002</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C12">
+        <v>-3441</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>-1500</v>
-      </c>
       <c r="E12">
-        <v>750</v>
+        <v>1377</v>
       </c>
       <c r="F12">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>431.67105538098502</v>
+        <v>1421.7540829658601</v>
       </c>
       <c r="H12">
-        <v>627.081148896267</v>
+        <v>-2104.9055791218102</v>
       </c>
       <c r="I12">
-        <v>-1253.09232750302</v>
+        <v>-5147.0783400322298</v>
       </c>
       <c r="J12">
-        <v>-414.59743011834098</v>
+        <v>6574.0628288693697</v>
       </c>
       <c r="K12">
-        <v>-926.94054633412998</v>
+        <v>-1825.5617985122699</v>
       </c>
       <c r="L12">
-        <v>-267.44820044047401</v>
+        <v>1026.55903237303</v>
       </c>
       <c r="M12">
-        <v>863.95968925822297</v>
+        <v>2146.46932522303</v>
       </c>
       <c r="N12">
-        <v>1506.23637414585</v>
+        <v>5950.7875211304899</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-1060</v>
+        <v>3909</v>
       </c>
       <c r="E13">
-        <v>750</v>
+        <v>1563</v>
       </c>
       <c r="F13">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>745.124203282346</v>
+        <v>-1962.4932411355901</v>
       </c>
       <c r="H13">
-        <v>-175.15192254932199</v>
+        <v>-1807.5185522930401</v>
       </c>
       <c r="I13">
-        <v>-2613.6894896795502</v>
+        <v>4280.5149150440502</v>
       </c>
       <c r="J13">
-        <v>1599.4457984994699</v>
+        <v>3809.09961971639</v>
       </c>
       <c r="K13">
-        <v>-939.78133559555999</v>
+        <v>-2318.8664017425999</v>
       </c>
       <c r="L13">
-        <v>161.330405942922</v>
+        <v>1404.58770600239</v>
       </c>
       <c r="M13">
-        <v>710.94418725967796</v>
+        <v>3050.4150643548301</v>
       </c>
       <c r="N13">
-        <v>2269.8265340818598</v>
+        <v>7025.62435601584</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-3774</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3774</v>
       </c>
       <c r="E14">
-        <v>1350</v>
+        <v>1774</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-216.81609908787701</v>
+        <v>-135.376602299627</v>
       </c>
       <c r="H14">
-        <v>-111.665287410429</v>
+        <v>-3950.6975072980199</v>
       </c>
       <c r="I14">
-        <v>577.81699057906906</v>
+        <v>-2045.49329622662</v>
       </c>
       <c r="J14">
-        <v>989.473271269203</v>
+        <v>9975.0936321386507</v>
       </c>
       <c r="K14">
-        <v>-1823.35147667367</v>
+        <v>-2559.1000395696201</v>
       </c>
       <c r="L14">
-        <v>102.477241707106</v>
+        <v>2387.4548077038398</v>
       </c>
       <c r="M14">
-        <v>272.76724867636199</v>
+        <v>3994.4973832462201</v>
       </c>
       <c r="N14">
-        <v>1375.66866113325</v>
+        <v>9110.6632231367294</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>-2600</v>
+        <v>-3774</v>
       </c>
       <c r="D15">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>750</v>
       </c>
       <c r="F15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>-1499.9362503683301</v>
+        <v>-1962.4932411355901</v>
       </c>
       <c r="H15">
-        <v>-1997.0308326412</v>
+        <v>-3950.6975072980199</v>
       </c>
       <c r="I15">
-        <v>-3649.61007025352</v>
+        <v>-5147.0783400322298</v>
       </c>
       <c r="J15">
-        <v>-472.36072167582</v>
+        <v>549.70737292733497</v>
       </c>
       <c r="K15">
-        <v>-2299.2438749927201</v>
+        <v>-2559.1000395696201</v>
       </c>
       <c r="L15">
-        <v>-436.52247104928199</v>
+        <v>56.931800948392599</v>
       </c>
       <c r="M15">
         <v>151.537360375757</v>
       </c>
       <c r="N15">
-        <v>684.39309374299398</v>
+        <v>764.26036729625002</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2600</v>
+        <v>3909</v>
       </c>
       <c r="E16">
-        <v>1600</v>
+        <v>1774</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>984.40356787462497</v>
+        <v>1421.7540829658601</v>
       </c>
       <c r="H16">
-        <v>627.081148896267</v>
+        <v>-62.0362707835721</v>
       </c>
       <c r="I16">
-        <v>3086.9642233719201</v>
+        <v>4280.5149150440502</v>
       </c>
       <c r="J16">
-        <v>5482.8510103586004</v>
+        <v>9975.0936321386507</v>
       </c>
       <c r="K16">
-        <v>-926.94054633412998</v>
+        <v>-1012.97304259648</v>
       </c>
       <c r="L16">
-        <v>1394.8386426290599</v>
+        <v>2387.4548077038398</v>
       </c>
       <c r="M16">
-        <v>2193.3559483512799</v>
+        <v>3994.4973832462201</v>
       </c>
       <c r="N16">
-        <v>5235.5649515386203</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+        <v>9110.6632231367294</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G17" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1842,42 +1395,42 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>210000000000</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>240000000</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="1" t="s">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G20" s="3">
         <v>275</v>
@@ -1898,12 +1451,12 @@
         <v>329</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G21" s="11">
         <v>0.5</v>
@@ -1924,12 +1477,12 @@
         <v>0.5</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="4">
         <f>G21*25.4</f>
@@ -1956,18 +1509,18 @@
         <v>12.7</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" s="4">
         <f>G22/2000</f>
@@ -1994,228 +1547,210 @@
         <v>6.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ref="G24:L24" si="2">-G15*(G20/1000)^2/(PI()^2*$C18/$C24)</f>
-        <v>1.0945841231737897E-10</v>
+        <v>1.4321368278521098E-10</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>1.4893107266049462E-10</v>
+        <v>2.9462820899007568E-10</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>5.3840729623304376E-10</v>
+        <v>7.5932071624405441E-10</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="2"/>
-        <v>8.6647834144362775E-11</v>
+        <v>-1.0083597363548381E-10</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>7.5669643518067137E-10</v>
+        <v>8.4221682539838345E-10</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="2"/>
-        <v>4.5594174433779885E-11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+        <v>-5.9464486605483231E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7">
         <f>IF(G24&gt;0,(G23-((-G24+PI() * (G23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.14068135198575318</v>
+        <v>0.18605704599593437</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" ref="H25:L25" si="3">IF(H24&gt;0,(H23-((-H24+PI() * (H23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.19384269863093484</v>
+        <v>0.40304690297734375</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="3"/>
-        <v>0.81234188231726645</v>
-      </c>
-      <c r="J25" s="7">
+        <v>1.2831394106844578</v>
+      </c>
+      <c r="J25" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0.11057230470338381</v>
+        <v>Tension only</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>1.2767299772687684</v>
-      </c>
-      <c r="L25" s="7">
+        <v>1.4994473605462137</v>
+      </c>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>5.745622690430871E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+        <v>Tension only</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:L26" si="4">G16/$C19*$C25</f>
-        <v>8.2033630656218741E-6</v>
+        <v>1.1847950691382167E-5</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="4"/>
-        <v>5.2256762408022249E-6</v>
+        <v>-5.1696892319643415E-7</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="4"/>
-        <v>2.5724701861432667E-5</v>
+        <v>3.5670957625367088E-5</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>4.569042508632167E-5</v>
+        <v>8.3125780267822089E-5</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="4"/>
-        <v>-7.7245045527844159E-6</v>
+        <v>-8.441442021637333E-6</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="4"/>
-        <v>1.1623655355242166E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1.9895456730865332E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7">
         <f>(G23-(G23^2-G26/PI())^0.5)*1000</f>
-        <v>0.20904824670820321</v>
+        <v>0.30424279647991648</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" ref="H27:L27" si="5">(H23-(H23^2-H26/PI())^0.5)*1000</f>
-        <v>0.13235449783787456</v>
+        <v>-1.2943997797183922E-2</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="5"/>
-        <v>0.68130763946609807</v>
+        <v>0.96779956354256691</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="5"/>
-        <v>1.2727186417252849</v>
+        <v>2.6267296171227694</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>-0.19074049057314202</v>
+        <v>-0.20816242930399298</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="5"/>
-        <v>0.29834108802939424</v>
-      </c>
-      <c r="P27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.51994172992896048</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" ref="G28:L28" si="6">MAX(G27,G25)</f>
-        <v>0.20904824670820321</v>
+        <v>0.30424279647991648</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="6"/>
-        <v>0.19384269863093484</v>
+        <v>0.40304690297734375</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="6"/>
-        <v>0.81234188231726645</v>
+        <v>1.2831394106844578</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="6"/>
-        <v>1.2727186417252849</v>
+        <v>2.6267296171227694</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" si="6"/>
-        <v>1.2767299772687684</v>
+        <v>1.4994473605462137</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="6"/>
-        <v>0.29834108802939424</v>
-      </c>
-      <c r="P28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.51994172992896048</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E29" s="9"/>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="10">
         <f>G28/25.4</f>
-        <v>8.2302459333938281E-3</v>
+        <v>1.1978062853540019E-2</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" ref="H29:L29" si="7">H28/25.4</f>
-        <v>7.631602308304522E-3</v>
+        <v>1.5867988306194635E-2</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="7"/>
-        <v>3.1981963870758523E-2</v>
+        <v>5.0517299633246374E-2</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="7"/>
-        <v>5.0107033138790745E-2</v>
+        <v>0.10341455185522715</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" si="7"/>
-        <v>5.0264959734990886E-2</v>
+        <v>5.903336065142574E-2</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="7"/>
-        <v>1.1745712127141506E-2</v>
-      </c>
-      <c r="P29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2.0470146847596869E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G31" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -2225,66 +1760,38 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G32" s="6">
         <f>MAX(ABS(G15),ABS(G16))*$C25</f>
-        <v>2999.8725007366602</v>
+        <v>3924.9864822711802</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ref="H32:N32" si="8">MAX(ABS(H15),ABS(H16))*$C25</f>
-        <v>3994.0616652824001</v>
+        <v>7901.3950145960398</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="8"/>
-        <v>7299.22014050704</v>
+        <v>10294.15668006446</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="8"/>
-        <v>10965.702020717201</v>
+        <v>19950.187264277301</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="8"/>
-        <v>4598.4877499854401</v>
+        <v>5118.2000791392402</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="8"/>
-        <v>2789.6772852581198</v>
+        <v>4774.9096154076797</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="8"/>
-        <v>4386.7118967025599</v>
+        <v>7988.9947664924402</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="8"/>
-        <v>10471.129903077241</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" t="s">
-        <v>60</v>
+        <v>18221.326446273459</v>
       </c>
     </row>
   </sheetData>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01AE21-D6CC-420D-95B3-ED799AE740C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83B07D-C48F-45C8-ACCA-7A54BC7EA8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontVD V2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Scenario</t>
   </si>
@@ -77,15 +77,6 @@
     <t>Self weight</t>
   </si>
   <si>
-    <t>Brake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corner Outside </t>
-  </si>
-  <si>
-    <t>Corner Outside Brake</t>
-  </si>
-  <si>
     <t>Max compression</t>
   </si>
   <si>
@@ -174,6 +165,42 @@
   </si>
   <si>
     <t>Outer diameter/in</t>
+  </si>
+  <si>
+    <t>Corner Inner</t>
+  </si>
+  <si>
+    <t>Corner Outer</t>
+  </si>
+  <si>
+    <t>Braking</t>
+  </si>
+  <si>
+    <t>Brake + Corner Inner</t>
+  </si>
+  <si>
+    <t>Brake + Corner Outer</t>
+  </si>
+  <si>
+    <t>Inches</t>
+  </si>
+  <si>
+    <t>SWG</t>
+  </si>
+  <si>
+    <t>SWG smaller than this</t>
+  </si>
+  <si>
+    <t>SWG chosen</t>
+  </si>
+  <si>
+    <t>Thickness/in</t>
+  </si>
+  <si>
+    <t>Mass/g</t>
+  </si>
+  <si>
+    <t>Density / kgm^-3</t>
   </si>
 </sst>
 </file>
@@ -183,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +345,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +553,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -694,11 +745,32 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1055,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:N32"/>
+  <dimension ref="A8:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:F9"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,359 +1150,471 @@
     <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1400</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-224.846324980021</v>
+      </c>
+      <c r="H9">
+        <v>-115.801038796001</v>
+      </c>
+      <c r="I9">
+        <v>599.21761985977503</v>
+      </c>
+      <c r="J9">
+        <v>1026.1204294643501</v>
+      </c>
+      <c r="K9">
+        <v>-1890.88301284677</v>
+      </c>
+      <c r="L9">
+        <v>106.272695103666</v>
+      </c>
+      <c r="M9">
+        <v>282.86973936807902</v>
+      </c>
+      <c r="N9">
+        <v>1426.61935228633</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
+      <c r="D10">
+        <v>-649</v>
+      </c>
+      <c r="E10">
+        <v>405</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>219.10533104516901</v>
+      </c>
+      <c r="H10">
+        <v>245.13292634353101</v>
+      </c>
+      <c r="I10">
+        <v>-426.26702285192101</v>
+      </c>
+      <c r="J10">
+        <v>-145.37281421753701</v>
+      </c>
+      <c r="K10">
+        <v>-512.49993083773199</v>
+      </c>
+      <c r="L10">
+        <v>-182.75804250552801</v>
+      </c>
+      <c r="M10">
+        <v>375.77150966541097</v>
+      </c>
+      <c r="N10">
+        <v>515.41232895426003</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-3832</v>
       </c>
       <c r="E11">
-        <v>750</v>
+        <v>2395</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-120.453388382154</v>
+        <v>1293.1078285745</v>
       </c>
       <c r="H11">
-        <v>-62.0362707835721</v>
+        <v>1447.0743778999099</v>
       </c>
       <c r="I11">
-        <v>321.009439210594</v>
+        <v>-2515.3006801633501</v>
       </c>
       <c r="J11">
-        <v>549.70737292733497</v>
+        <v>-855.64441479823699</v>
       </c>
       <c r="K11">
-        <v>-1012.97304259648</v>
+        <v>-3031.0238760445</v>
       </c>
       <c r="L11">
-        <v>56.931800948392599</v>
+        <v>-1078.80896250152</v>
       </c>
       <c r="M11">
-        <v>151.537360375757</v>
+        <v>2218.0123010822599</v>
       </c>
       <c r="N11">
-        <v>764.26036729625002</v>
+        <v>3039.8074918877301</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>-3441</v>
+        <v>3478</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1377</v>
+        <v>2174</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1421.7540829658601</v>
+        <v>-2009.7263871596199</v>
       </c>
       <c r="H12">
-        <v>-2104.9055791218102</v>
+        <v>1832.59319298695</v>
       </c>
       <c r="I12">
-        <v>-5147.0783400322298</v>
+        <v>6728.6333075740404</v>
       </c>
       <c r="J12">
-        <v>6574.0628288693697</v>
+        <v>-4031.2182139803199</v>
       </c>
       <c r="K12">
-        <v>-1825.5617985122699</v>
+        <v>-2970.8962521968601</v>
       </c>
       <c r="L12">
-        <v>1026.55903237303</v>
+        <v>-766.92025737337894</v>
       </c>
       <c r="M12">
-        <v>2146.46932522303</v>
+        <v>2264.3279894929101</v>
       </c>
       <c r="N12">
-        <v>5950.7875211304899</v>
+        <v>5833.5740583810802</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="D13">
-        <v>3909</v>
+        <v>-1097</v>
       </c>
       <c r="E13">
-        <v>1563</v>
+        <v>970</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-1962.4932411355901</v>
+        <v>-199.25240937487001</v>
       </c>
       <c r="H13">
-        <v>-1807.5185522930401</v>
+        <v>1025.4752916433099</v>
       </c>
       <c r="I13">
-        <v>4280.5149150440502</v>
+        <v>1230.4483136491299</v>
       </c>
       <c r="J13">
-        <v>3809.09961971639</v>
+        <v>-1810.5907451988901</v>
       </c>
       <c r="K13">
-        <v>-2318.8664017425999</v>
+        <v>-1262.7085144358</v>
       </c>
       <c r="L13">
-        <v>1404.58770600239</v>
+        <v>-581.194106849121</v>
       </c>
       <c r="M13">
-        <v>3050.4150643548301</v>
+        <v>982.52357143423296</v>
       </c>
       <c r="N13">
-        <v>7025.62435601584</v>
+        <v>1591.85739658487</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>-3774</v>
+        <v>3331</v>
       </c>
       <c r="D14">
-        <v>3774</v>
+        <v>-3331</v>
       </c>
       <c r="E14">
-        <v>1774</v>
+        <v>2944</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-135.376602299627</v>
+        <v>-604.80268700263696</v>
       </c>
       <c r="H14">
-        <v>-3950.6975072980199</v>
+        <v>3113.9311161672799</v>
       </c>
       <c r="I14">
-        <v>-2045.49329622662</v>
+        <v>3735.6248476405499</v>
       </c>
       <c r="J14">
-        <v>9975.0936321386507</v>
+        <v>-5498.7954903278796</v>
       </c>
       <c r="K14">
-        <v>-2559.1000395696201</v>
+        <v>-3832.3185179936199</v>
       </c>
       <c r="L14">
-        <v>2387.4548077038398</v>
+        <v>-1764.87838225565</v>
       </c>
       <c r="M14">
-        <v>3994.4973832462201</v>
+        <v>2983.53382653054</v>
       </c>
       <c r="N14">
-        <v>9110.6632231367294</v>
+        <v>4834.2495100597998</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>-3774</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-3832</v>
       </c>
       <c r="E15">
-        <v>750</v>
+        <v>405</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-1962.4932411355901</v>
+        <v>-2009.7263871596199</v>
       </c>
       <c r="H15">
-        <v>-3950.6975072980199</v>
+        <v>-115.801038796001</v>
       </c>
       <c r="I15">
-        <v>-5147.0783400322298</v>
+        <v>-2515.3006801633501</v>
       </c>
       <c r="J15">
-        <v>549.70737292733497</v>
+        <v>-5498.7954903278796</v>
       </c>
       <c r="K15">
-        <v>-2559.1000395696201</v>
+        <v>-3832.3185179936199</v>
       </c>
       <c r="L15">
-        <v>56.931800948392599</v>
+        <v>-1764.87838225565</v>
       </c>
       <c r="M15">
-        <v>151.537360375757</v>
+        <v>282.86973936807902</v>
       </c>
       <c r="N15">
-        <v>764.26036729625002</v>
+        <v>515.41232895426003</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
+        <v>3478</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>3909</v>
-      </c>
       <c r="E16">
-        <v>1774</v>
+        <v>2944</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1421.7540829658601</v>
+        <v>1293.1078285745</v>
       </c>
       <c r="H16">
-        <v>-62.0362707835721</v>
+        <v>3113.9311161672799</v>
       </c>
       <c r="I16">
-        <v>4280.5149150440502</v>
+        <v>6728.6333075740404</v>
       </c>
       <c r="J16">
-        <v>9975.0936321386507</v>
+        <v>1026.1204294643501</v>
       </c>
       <c r="K16">
-        <v>-1012.97304259648</v>
+        <v>-512.49993083773199</v>
       </c>
       <c r="L16">
-        <v>2387.4548077038398</v>
+        <v>106.272695103666</v>
       </c>
       <c r="M16">
-        <v>3994.4973832462201</v>
+        <v>2983.53382653054</v>
       </c>
       <c r="N16">
-        <v>9110.6632231367294</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5833.5740583810802</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>210000000000</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P18" s="12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>240000000</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="N19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="1" t="s">
+      <c r="P19" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7850</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G20" s="3">
         <v>275</v>
@@ -1451,38 +1635,50 @@
         <v>329</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="11">
+        <v>43</v>
+      </c>
+      <c r="G21" s="10">
         <v>0.5</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>0.5</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>0.5</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>0.5</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>0.5</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>0.5</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.252</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4">
         <f>G21*25.4</f>
@@ -1509,18 +1705,24 @@
         <v>12.7</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="4">
         <f>G22/2000</f>
@@ -1546,260 +1748,515 @@
         <f t="shared" si="1"/>
         <v>6.3499999999999997E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P23" s="14">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
+      <c r="E24" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ref="G24:L24" si="2">-G15*(G20/1000)^2/(PI()^2*$C18/$C24)</f>
-        <v>1.4321368278521098E-10</v>
+        <v>1.4666053939080049E-10</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>2.9462820899007568E-10</v>
+        <v>8.6360073370918152E-12</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>7.5932071624405441E-10</v>
+        <v>3.7106874771578329E-10</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="2"/>
-        <v>-1.0083597363548381E-10</v>
+        <v>1.0086755688520023E-9</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>8.4221682539838345E-10</v>
+        <v>1.261241485769676E-9</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="2"/>
-        <v>-5.9464486605483231E-12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1.8433913063294915E-10</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.192</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7">
         <f>IF(G24&gt;0,(G23-((-G24+PI() * (G23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.18605704599593437</v>
+        <v>0.19074726619779625</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" ref="H25:L25" si="3">IF(H24&gt;0,(H23-((-H24+PI() * (H23)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.40304690297734375</v>
+        <v>1.0763321450231456E-2</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="3"/>
-        <v>1.2831394106844578</v>
-      </c>
-      <c r="J25" s="7" t="str">
+        <v>0.52227318422724822</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="3"/>
-        <v>Tension only</v>
+        <v>2.0508231696104282</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>1.4994473605462137</v>
-      </c>
-      <c r="L25" s="7" t="str">
+        <v>4.2341620655880607</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="3"/>
-        <v>Tension only</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>0.24273041848285951</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ref="G26:L26" si="4">G16/$C19*$C25</f>
-        <v>1.1847950691382167E-5</v>
+        <v>1.0775898571454167E-5</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="4"/>
-        <v>-5.1696892319643415E-7</v>
+        <v>2.5949425968060665E-5</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="4"/>
-        <v>3.5670957625367088E-5</v>
+        <v>5.6071944229783668E-5</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>8.3125780267822089E-5</v>
+        <v>8.5510035788695835E-6</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="4"/>
-        <v>-8.441442021637333E-6</v>
+        <v>-4.2708327569811001E-6</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="4"/>
-        <v>1.9895456730865332E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8.8560579253054997E-7</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E27" s="19"/>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7">
         <f>(G23-(G23^2-G26/PI())^0.5)*1000</f>
-        <v>0.30424279647991648</v>
+        <v>0.27608652085063434</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" ref="H27:L27" si="5">(H23-(H23^2-H26/PI())^0.5)*1000</f>
-        <v>-1.2943997797183922E-2</v>
+        <v>0.68762053783288835</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="5"/>
-        <v>0.96779956354256691</v>
+        <v>1.6092990165890337</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="5"/>
-        <v>2.6267296171227694</v>
+        <v>0.21806465917547074</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="5"/>
-        <v>-0.20816242930399298</v>
+        <v>-0.10615584452425189</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="5"/>
-        <v>0.51994172992896048</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>2.2235551083155461E-2</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E28" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" ref="G28:L28" si="6">MAX(G27,G25)</f>
-        <v>0.30424279647991648</v>
+        <v>0.27608652085063434</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="6"/>
-        <v>0.40304690297734375</v>
+        <v>0.68762053783288835</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="6"/>
-        <v>1.2831394106844578</v>
+        <v>1.6092990165890337</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="6"/>
-        <v>2.6267296171227694</v>
+        <v>2.0508231696104282</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" si="6"/>
-        <v>1.4994473605462137</v>
+        <v>4.2341620655880607</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="6"/>
-        <v>0.51994172992896048</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E29" s="9"/>
+        <v>0.24273041848285951</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.128</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E29" s="19"/>
       <c r="F29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="10">
+        <v>41</v>
+      </c>
+      <c r="G29" s="9">
         <f>G28/25.4</f>
-        <v>1.1978062853540019E-2</v>
-      </c>
-      <c r="H29" s="10">
+        <v>1.0869548064985605E-2</v>
+      </c>
+      <c r="H29" s="9">
         <f t="shared" ref="H29:L29" si="7">H28/25.4</f>
-        <v>1.5867988306194635E-2</v>
-      </c>
-      <c r="I29" s="10">
+        <v>2.7071674717830251E-2</v>
+      </c>
+      <c r="I29" s="9">
         <f t="shared" si="7"/>
-        <v>5.0517299633246374E-2</v>
-      </c>
-      <c r="J29" s="10">
+        <v>6.3358228999568264E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="7"/>
-        <v>0.10341455185522715</v>
-      </c>
-      <c r="K29" s="10">
+        <v>8.0741069669701904E-2</v>
+      </c>
+      <c r="K29" s="9">
         <f t="shared" si="7"/>
-        <v>5.903336065142574E-2</v>
-      </c>
-      <c r="L29" s="10">
+        <v>0.1666992939207898</v>
+      </c>
+      <c r="L29" s="9">
         <f t="shared" si="7"/>
-        <v>2.0470146847596869E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9.5563156883015556E-3</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="P31" s="14">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G32" s="6">
         <f>MAX(ABS(G15),ABS(G16))*$C25</f>
-        <v>3924.9864822711802</v>
+        <v>4019.4527743192398</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ref="H32:N32" si="8">MAX(ABS(H15),ABS(H16))*$C25</f>
-        <v>7901.3950145960398</v>
+        <v>6227.8622323345598</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="8"/>
-        <v>10294.15668006446</v>
+        <v>13457.266615148081</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="8"/>
-        <v>19950.187264277301</v>
+        <v>10997.590980655759</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="8"/>
-        <v>5118.2000791392402</v>
+        <v>7664.6370359872399</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="8"/>
-        <v>4774.9096154076797</v>
+        <v>3529.7567645112999</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="8"/>
-        <v>7988.9947664924402</v>
+        <v>5967.0676530610799</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="8"/>
-        <v>18221.326446273459</v>
+        <v>11667.14811676216</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P33" s="14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P34" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="6">
+        <f>_xlfn.XLOOKUP(G29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="H35" s="6">
+        <f>_xlfn.XLOOKUP(H29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>22</v>
+      </c>
+      <c r="I35" s="6">
+        <f>_xlfn.XLOOKUP(I29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="J35" s="6">
+        <f>_xlfn.XLOOKUP(J29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>13</v>
+      </c>
+      <c r="K35" s="6">
+        <f>_xlfn.XLOOKUP(K29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <f>_xlfn.XLOOKUP(L29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="P35" s="14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="3">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="3">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3">
+        <v>20</v>
+      </c>
+      <c r="L36" s="3">
+        <v>20</v>
+      </c>
+      <c r="P36" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="4">
+        <f>INDEX($P$30:$P$55,MATCH(G36,$Q$30:$Q$55,0))</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" ref="H37:L37" si="9">INDEX($P$30:$P$55,MATCH(H36,$Q$30:$Q$55,0))</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P37" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="18">
+        <f>(G22^2/4 - (G22-2*G37*25.4)^2/4)*PI()*G20*$C$20*1000^-3*1000</f>
+        <v>122.09169406432036</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" ref="H38:L38" si="10">(H22^2/4 - (H22-2*H37*25.4)^2/4)*PI()*H20*$C$20*1000^-3*1000</f>
+        <v>73.884313076888688</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="10"/>
+        <v>103.91642594627152</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="10"/>
+        <v>115.87611691195492</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="10"/>
+        <v>155.21021164353598</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="10"/>
+        <v>87.438629504663226</v>
+      </c>
+      <c r="P38" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P39" s="14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P40" s="16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P41" s="14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P42" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="P43" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="G17:N17"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="G31:N31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FrontVD.xlsx
+++ b/FrontVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83B07D-C48F-45C8-ACCA-7A54BC7EA8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373D102-7542-44C6-BE34-83C551B6EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrontVD V2" sheetId="1" r:id="rId1"/>
@@ -747,9 +747,6 @@
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +766,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,7 +1130,7 @@
   <dimension ref="A8:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,16 +1544,16 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
       <c r="P17" t="s">
         <v>49</v>
       </c>
@@ -1568,10 +1568,10 @@
       <c r="C18" s="2">
         <v>210000000000</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="11">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
       <c r="C19" s="2">
         <v>240000000</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1599,10 +1599,10 @@
       <c r="N19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <v>0.3</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1637,10 +1637,10 @@
       <c r="N20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <v>0.27600000000000002</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1669,10 +1669,10 @@
       <c r="N21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <v>0.252</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1707,10 +1707,10 @@
       <c r="N22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <v>0.23200000000000001</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1748,10 +1748,10 @@
         <f t="shared" si="1"/>
         <v>6.3499999999999997E-3</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1792,10 +1792,10 @@
         <f t="shared" si="2"/>
         <v>1.8433913063294915E-10</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <v>0.192</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="12">
         <v>6</v>
       </c>
     </row>
@@ -1834,10 +1834,10 @@
         <f t="shared" si="3"/>
         <v>0.24273041848285951</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>0.17599999999999999</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="14">
         <v>7</v>
       </c>
     </row>
@@ -1872,10 +1872,10 @@
         <f t="shared" si="4"/>
         <v>8.8560579253054997E-7</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="11">
         <v>0.16</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="12">
         <v>8</v>
       </c>
     </row>
@@ -1908,10 +1908,10 @@
         <f t="shared" si="5"/>
         <v>2.2235551083155461E-2</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="13">
         <v>0.14399999999999999</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="14">
         <v>9</v>
       </c>
     </row>
@@ -1946,10 +1946,10 @@
         <f t="shared" si="6"/>
         <v>0.24273041848285951</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="11">
         <v>0.128</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="12">
         <v>10</v>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <f t="shared" si="7"/>
         <v>9.5563156883015556E-3</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="13">
         <v>0.11600000000000001</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1993,28 +1993,28 @@
       <c r="L30" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <v>0.104</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="P31" s="14">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="P31" s="13">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="14">
         <v>13</v>
       </c>
     </row>
@@ -2051,26 +2051,26 @@
         <f t="shared" si="8"/>
         <v>11667.14811676216</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="11">
         <v>0.08</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P33" s="14">
+      <c r="P33" s="13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P34" s="12">
+      <c r="P34" s="11">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2079,33 +2079,33 @@
         <v>51</v>
       </c>
       <c r="G35" s="6">
-        <f>_xlfn.XLOOKUP(G29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" ref="G35:L35" si="9">_xlfn.XLOOKUP(G29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
         <v>25</v>
       </c>
       <c r="H35" s="6">
-        <f>_xlfn.XLOOKUP(H29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I35" s="6">
-        <f>_xlfn.XLOOKUP(I29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="J35" s="6">
-        <f>_xlfn.XLOOKUP(J29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="K35" s="6">
-        <f>_xlfn.XLOOKUP(K29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <f>_xlfn.XLOOKUP(L29,$P$30:$P$55,$Q$30:$Q$55,"Not Found",1,1)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="13">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="14">
         <v>17</v>
       </c>
     </row>
@@ -2131,10 +2131,10 @@
       <c r="L36" s="3">
         <v>20</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="12">
         <v>18</v>
       </c>
     </row>
@@ -2147,29 +2147,29 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" ref="H37:L37" si="9">INDEX($P$30:$P$55,MATCH(H36,$Q$30:$Q$55,0))</f>
+        <f t="shared" ref="H37:L37" si="10">INDEX($P$30:$P$55,MATCH(H36,$Q$30:$Q$55,0))</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="13">
         <v>0.04</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="14">
         <v>19</v>
       </c>
     </row>
@@ -2177,74 +2177,74 @@
       <c r="F38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <f>(G22^2/4 - (G22-2*G37*25.4)^2/4)*PI()*G20*$C$20*1000^-3*1000</f>
         <v>122.09169406432036</v>
       </c>
-      <c r="H38" s="18">
-        <f t="shared" ref="H38:L38" si="10">(H22^2/4 - (H22-2*H37*25.4)^2/4)*PI()*H20*$C$20*1000^-3*1000</f>
+      <c r="H38" s="17">
+        <f t="shared" ref="H38:L38" si="11">(H22^2/4 - (H22-2*H37*25.4)^2/4)*PI()*H20*$C$20*1000^-3*1000</f>
         <v>73.884313076888688</v>
       </c>
-      <c r="I38" s="18">
-        <f t="shared" si="10"/>
+      <c r="I38" s="17">
+        <f t="shared" si="11"/>
         <v>103.91642594627152</v>
       </c>
-      <c r="J38" s="18">
-        <f t="shared" si="10"/>
+      <c r="J38" s="17">
+        <f t="shared" si="11"/>
         <v>115.87611691195492</v>
       </c>
-      <c r="K38" s="18">
-        <f t="shared" si="10"/>
+      <c r="K38" s="17">
+        <f t="shared" si="11"/>
         <v>155.21021164353598</v>
       </c>
-      <c r="L38" s="18">
-        <f t="shared" si="10"/>
+      <c r="L38" s="17">
+        <f t="shared" si="11"/>
         <v>87.438629504663226</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="11">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P40" s="16">
+      <c r="P40" s="15">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P41" s="14">
+      <c r="P41" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="P43" s="14">
+      <c r="P43" s="13">
         <v>0.02</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="14">
         <v>25</v>
       </c>
     </row>
